--- a/Returns.xlsx
+++ b/Returns.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="8740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$196</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -297,16 +301,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -316,11 +320,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -334,55 +344,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -572,23 +565,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.57"/>
+    <col min="1" max="26" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,9 +604,9 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -629,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>0.756354009317221</v>
+        <v>75.635400931722103</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -653,13 +648,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>0.525498463726404</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
+        <v>52.549846372640395</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -677,13 +672,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>0.521591607069214</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
+        <v>52.159160706921405</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -701,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="G5" s="3">
-        <v>0.459420552949813</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
+        <v>45.942055294981301</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -725,13 +720,13 @@
         <v>24</v>
       </c>
       <c r="G6" s="3">
-        <v>0.457184781759004</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
+        <v>45.718478175900401</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -749,13 +744,13 @@
         <v>27</v>
       </c>
       <c r="G7" s="3">
-        <v>0.437706249593463</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
+        <v>43.7706249593463</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
@@ -773,13 +768,13 @@
         <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>0.351001492745136</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
+        <v>35.100149274513598</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
@@ -797,13 +792,13 @@
         <v>33</v>
       </c>
       <c r="G9" s="3">
-        <v>0.342108075840494</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
+        <v>34.210807584049405</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -821,13 +816,13 @@
         <v>37</v>
       </c>
       <c r="G10" s="3">
-        <v>0.340390959517346</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
+        <v>34.039095951734602</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
@@ -845,13 +840,13 @@
         <v>41</v>
       </c>
       <c r="G11" s="3">
-        <v>0.270517075820386</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
+        <v>27.051707582038599</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>42</v>
@@ -869,13 +864,13 @@
         <v>44</v>
       </c>
       <c r="G12" s="3">
-        <v>0.249502547312656</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+        <v>24.950254731265602</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
@@ -893,13 +888,13 @@
         <v>48</v>
       </c>
       <c r="G13" s="3">
-        <v>0.246735557674982</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
+        <v>24.6735557674982</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>49</v>
@@ -917,13 +912,13 @@
         <v>51</v>
       </c>
       <c r="G14" s="3">
-        <v>0.241866560352158</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <v>24.186656035215801</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>52</v>
@@ -941,13 +936,13 @@
         <v>55</v>
       </c>
       <c r="G15" s="3">
-        <v>0.230766008664968</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
+        <v>23.076600866496801</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
@@ -965,13 +960,13 @@
         <v>58</v>
       </c>
       <c r="G16" s="3">
-        <v>0.188088277471186</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
+        <v>18.808827747118599</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>59</v>
@@ -989,13 +984,13 @@
         <v>61</v>
       </c>
       <c r="G17" s="3">
-        <v>0.186129558413673</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
+        <v>18.612955841367302</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>62</v>
@@ -1013,13 +1008,13 @@
         <v>65</v>
       </c>
       <c r="G18" s="3">
-        <v>0.169505714682202</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
+        <v>16.9505714682202</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>66</v>
@@ -1037,13 +1032,13 @@
         <v>68</v>
       </c>
       <c r="G19" s="3">
-        <v>0.163200799743454</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
+        <v>16.320079974345401</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>69</v>
@@ -1061,13 +1056,13 @@
         <v>71</v>
       </c>
       <c r="G20" s="3">
-        <v>0.160448272983163</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
+        <v>16.044827298316299</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>72</v>
@@ -1085,13 +1080,13 @@
         <v>74</v>
       </c>
       <c r="G21" s="3">
-        <v>0.152401651640878</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
+        <v>15.240165164087799</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>75</v>
@@ -1109,13 +1104,13 @@
         <v>78</v>
       </c>
       <c r="G22" s="3">
-        <v>0.134527275445279</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
+        <v>13.452727544527901</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>79</v>
@@ -1133,13 +1128,13 @@
         <v>81</v>
       </c>
       <c r="G23" s="3">
-        <v>0.12125288281267</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
+        <v>12.125288281267</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>82</v>
@@ -1157,13 +1152,13 @@
         <v>85</v>
       </c>
       <c r="G24" s="3">
-        <v>0.108870673632767</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
+        <v>10.887067363276701</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>86</v>
@@ -1181,13 +1176,13 @@
         <v>89</v>
       </c>
       <c r="G25" s="3">
-        <v>0.104266503055995</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <v>10.4266503055995</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>90</v>
@@ -1205,11 +1200,11 @@
         <v>92</v>
       </c>
       <c r="G26" s="3">
-        <v>0.086788185979621</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
+        <v>8.6788185979620991</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1218,7 +1213,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1227,7 +1222,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1236,7 +1231,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1245,7 +1240,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1254,7 +1249,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1263,7 +1258,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1272,7 +1267,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1281,7 +1276,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1290,7 +1285,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1299,7 +1294,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1308,7 +1303,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1317,7 +1312,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1326,7 +1321,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1335,7 +1330,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1344,7 +1339,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1353,7 +1348,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1362,7 +1357,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1371,7 +1366,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
+    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1380,7 +1375,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
+    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1389,7 +1384,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1398,7 +1393,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1407,7 +1402,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1416,7 +1411,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1425,7 +1420,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
+    <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1434,7 +1429,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
+    <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1443,7 +1438,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
+    <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1452,7 +1447,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1461,7 +1456,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1470,7 +1465,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1479,7 +1474,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1488,7 +1483,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1497,7 +1492,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1506,7 +1501,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1515,7 +1510,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1524,7 +1519,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1533,7 +1528,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1542,7 +1537,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1551,7 +1546,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1560,7 +1555,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1569,7 +1564,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1578,7 +1573,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1587,7 +1582,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1596,7 +1591,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1605,7 +1600,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1614,7 +1609,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1623,7 +1618,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1632,7 +1627,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1641,7 +1636,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1650,7 +1645,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1659,7 +1654,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1668,7 +1663,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1677,7 +1672,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1686,7 +1681,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1695,7 +1690,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1704,7 +1699,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1713,7 +1708,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1722,7 +1717,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1731,7 +1726,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1740,7 +1735,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1749,7 +1744,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1758,7 +1753,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1767,7 +1762,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1776,7 +1771,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1785,7 +1780,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1794,7 +1789,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1803,7 +1798,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1812,7 +1807,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1821,7 +1816,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1830,7 +1825,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1839,7 +1834,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1848,7 +1843,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1857,7 +1852,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1866,7 +1861,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1875,7 +1870,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1884,7 +1879,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1893,7 +1888,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1902,7 +1897,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1911,7 +1906,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1920,7 +1915,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1929,7 +1924,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1938,7 +1933,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1947,7 +1942,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1956,7 +1951,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1965,7 +1960,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1974,7 +1969,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1983,7 +1978,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -1992,7 +1987,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2001,7 +1996,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2010,7 +2005,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2019,7 +2014,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2028,7 +2023,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2037,7 +2032,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2046,7 +2041,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2055,7 +2050,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2064,7 +2059,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2073,7 +2068,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2082,7 +2077,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2091,7 +2086,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2100,7 +2095,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2109,7 +2104,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2118,7 +2113,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2127,7 +2122,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2136,7 +2131,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2145,7 +2140,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2154,7 +2149,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2163,7 +2158,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2172,7 +2167,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2181,7 +2176,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2190,7 +2185,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2199,7 +2194,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2208,7 +2203,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2217,7 +2212,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2226,7 +2221,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2235,7 +2230,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2244,7 +2239,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2253,7 +2248,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2262,7 +2257,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2271,7 +2266,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2280,7 +2275,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2289,7 +2284,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2298,7 +2293,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2307,7 +2302,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2316,7 +2311,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2325,7 +2320,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2334,7 +2329,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2343,7 +2338,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2352,7 +2347,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2361,7 +2356,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2370,7 +2365,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2379,7 +2374,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2388,7 +2383,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2397,7 +2392,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2406,7 +2401,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2415,7 +2410,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2424,7 +2419,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2433,7 +2428,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2442,7 +2437,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2451,7 +2446,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2460,7 +2455,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2469,7 +2464,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2478,7 +2473,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2487,7 +2482,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2496,7 +2491,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2505,7 +2500,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2514,7 +2509,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2523,7 +2518,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2532,7 +2527,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2541,7 +2536,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2550,7 +2545,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2559,7 +2554,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2568,7 +2563,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2577,7 +2572,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2586,7 +2581,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2595,7 +2590,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2604,7 +2599,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2613,7 +2608,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2622,7 +2617,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2631,7 +2626,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2640,7 +2635,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2649,7 +2644,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2658,7 +2653,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2667,7 +2662,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -2676,7 +2671,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -2685,7 +2680,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -2694,7 +2689,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -2703,7 +2698,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -2712,7 +2707,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -2721,7 +2716,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -2730,7 +2725,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -2739,7 +2734,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -2748,7 +2743,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -2757,812 +2752,810 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
-    <row r="515" ht="13.5" customHeight="1"/>
-    <row r="516" ht="13.5" customHeight="1"/>
-    <row r="517" ht="13.5" customHeight="1"/>
-    <row r="518" ht="13.5" customHeight="1"/>
-    <row r="519" ht="13.5" customHeight="1"/>
-    <row r="520" ht="13.5" customHeight="1"/>
-    <row r="521" ht="13.5" customHeight="1"/>
-    <row r="522" ht="13.5" customHeight="1"/>
-    <row r="523" ht="13.5" customHeight="1"/>
-    <row r="524" ht="13.5" customHeight="1"/>
-    <row r="525" ht="13.5" customHeight="1"/>
-    <row r="526" ht="13.5" customHeight="1"/>
-    <row r="527" ht="13.5" customHeight="1"/>
-    <row r="528" ht="13.5" customHeight="1"/>
-    <row r="529" ht="13.5" customHeight="1"/>
-    <row r="530" ht="13.5" customHeight="1"/>
-    <row r="531" ht="13.5" customHeight="1"/>
-    <row r="532" ht="13.5" customHeight="1"/>
-    <row r="533" ht="13.5" customHeight="1"/>
-    <row r="534" ht="13.5" customHeight="1"/>
-    <row r="535" ht="13.5" customHeight="1"/>
-    <row r="536" ht="13.5" customHeight="1"/>
-    <row r="537" ht="13.5" customHeight="1"/>
-    <row r="538" ht="13.5" customHeight="1"/>
-    <row r="539" ht="13.5" customHeight="1"/>
-    <row r="540" ht="13.5" customHeight="1"/>
-    <row r="541" ht="13.5" customHeight="1"/>
-    <row r="542" ht="13.5" customHeight="1"/>
-    <row r="543" ht="13.5" customHeight="1"/>
-    <row r="544" ht="13.5" customHeight="1"/>
-    <row r="545" ht="13.5" customHeight="1"/>
-    <row r="546" ht="13.5" customHeight="1"/>
-    <row r="547" ht="13.5" customHeight="1"/>
-    <row r="548" ht="13.5" customHeight="1"/>
-    <row r="549" ht="13.5" customHeight="1"/>
-    <row r="550" ht="13.5" customHeight="1"/>
-    <row r="551" ht="13.5" customHeight="1"/>
-    <row r="552" ht="13.5" customHeight="1"/>
-    <row r="553" ht="13.5" customHeight="1"/>
-    <row r="554" ht="13.5" customHeight="1"/>
-    <row r="555" ht="13.5" customHeight="1"/>
-    <row r="556" ht="13.5" customHeight="1"/>
-    <row r="557" ht="13.5" customHeight="1"/>
-    <row r="558" ht="13.5" customHeight="1"/>
-    <row r="559" ht="13.5" customHeight="1"/>
-    <row r="560" ht="13.5" customHeight="1"/>
-    <row r="561" ht="13.5" customHeight="1"/>
-    <row r="562" ht="13.5" customHeight="1"/>
-    <row r="563" ht="13.5" customHeight="1"/>
-    <row r="564" ht="13.5" customHeight="1"/>
-    <row r="565" ht="13.5" customHeight="1"/>
-    <row r="566" ht="13.5" customHeight="1"/>
-    <row r="567" ht="13.5" customHeight="1"/>
-    <row r="568" ht="13.5" customHeight="1"/>
-    <row r="569" ht="13.5" customHeight="1"/>
-    <row r="570" ht="13.5" customHeight="1"/>
-    <row r="571" ht="13.5" customHeight="1"/>
-    <row r="572" ht="13.5" customHeight="1"/>
-    <row r="573" ht="13.5" customHeight="1"/>
-    <row r="574" ht="13.5" customHeight="1"/>
-    <row r="575" ht="13.5" customHeight="1"/>
-    <row r="576" ht="13.5" customHeight="1"/>
-    <row r="577" ht="13.5" customHeight="1"/>
-    <row r="578" ht="13.5" customHeight="1"/>
-    <row r="579" ht="13.5" customHeight="1"/>
-    <row r="580" ht="13.5" customHeight="1"/>
-    <row r="581" ht="13.5" customHeight="1"/>
-    <row r="582" ht="13.5" customHeight="1"/>
-    <row r="583" ht="13.5" customHeight="1"/>
-    <row r="584" ht="13.5" customHeight="1"/>
-    <row r="585" ht="13.5" customHeight="1"/>
-    <row r="586" ht="13.5" customHeight="1"/>
-    <row r="587" ht="13.5" customHeight="1"/>
-    <row r="588" ht="13.5" customHeight="1"/>
-    <row r="589" ht="13.5" customHeight="1"/>
-    <row r="590" ht="13.5" customHeight="1"/>
-    <row r="591" ht="13.5" customHeight="1"/>
-    <row r="592" ht="13.5" customHeight="1"/>
-    <row r="593" ht="13.5" customHeight="1"/>
-    <row r="594" ht="13.5" customHeight="1"/>
-    <row r="595" ht="13.5" customHeight="1"/>
-    <row r="596" ht="13.5" customHeight="1"/>
-    <row r="597" ht="13.5" customHeight="1"/>
-    <row r="598" ht="13.5" customHeight="1"/>
-    <row r="599" ht="13.5" customHeight="1"/>
-    <row r="600" ht="13.5" customHeight="1"/>
-    <row r="601" ht="13.5" customHeight="1"/>
-    <row r="602" ht="13.5" customHeight="1"/>
-    <row r="603" ht="13.5" customHeight="1"/>
-    <row r="604" ht="13.5" customHeight="1"/>
-    <row r="605" ht="13.5" customHeight="1"/>
-    <row r="606" ht="13.5" customHeight="1"/>
-    <row r="607" ht="13.5" customHeight="1"/>
-    <row r="608" ht="13.5" customHeight="1"/>
-    <row r="609" ht="13.5" customHeight="1"/>
-    <row r="610" ht="13.5" customHeight="1"/>
-    <row r="611" ht="13.5" customHeight="1"/>
-    <row r="612" ht="13.5" customHeight="1"/>
-    <row r="613" ht="13.5" customHeight="1"/>
-    <row r="614" ht="13.5" customHeight="1"/>
-    <row r="615" ht="13.5" customHeight="1"/>
-    <row r="616" ht="13.5" customHeight="1"/>
-    <row r="617" ht="13.5" customHeight="1"/>
-    <row r="618" ht="13.5" customHeight="1"/>
-    <row r="619" ht="13.5" customHeight="1"/>
-    <row r="620" ht="13.5" customHeight="1"/>
-    <row r="621" ht="13.5" customHeight="1"/>
-    <row r="622" ht="13.5" customHeight="1"/>
-    <row r="623" ht="13.5" customHeight="1"/>
-    <row r="624" ht="13.5" customHeight="1"/>
-    <row r="625" ht="13.5" customHeight="1"/>
-    <row r="626" ht="13.5" customHeight="1"/>
-    <row r="627" ht="13.5" customHeight="1"/>
-    <row r="628" ht="13.5" customHeight="1"/>
-    <row r="629" ht="13.5" customHeight="1"/>
-    <row r="630" ht="13.5" customHeight="1"/>
-    <row r="631" ht="13.5" customHeight="1"/>
-    <row r="632" ht="13.5" customHeight="1"/>
-    <row r="633" ht="13.5" customHeight="1"/>
-    <row r="634" ht="13.5" customHeight="1"/>
-    <row r="635" ht="13.5" customHeight="1"/>
-    <row r="636" ht="13.5" customHeight="1"/>
-    <row r="637" ht="13.5" customHeight="1"/>
-    <row r="638" ht="13.5" customHeight="1"/>
-    <row r="639" ht="13.5" customHeight="1"/>
-    <row r="640" ht="13.5" customHeight="1"/>
-    <row r="641" ht="13.5" customHeight="1"/>
-    <row r="642" ht="13.5" customHeight="1"/>
-    <row r="643" ht="13.5" customHeight="1"/>
-    <row r="644" ht="13.5" customHeight="1"/>
-    <row r="645" ht="13.5" customHeight="1"/>
-    <row r="646" ht="13.5" customHeight="1"/>
-    <row r="647" ht="13.5" customHeight="1"/>
-    <row r="648" ht="13.5" customHeight="1"/>
-    <row r="649" ht="13.5" customHeight="1"/>
-    <row r="650" ht="13.5" customHeight="1"/>
-    <row r="651" ht="13.5" customHeight="1"/>
-    <row r="652" ht="13.5" customHeight="1"/>
-    <row r="653" ht="13.5" customHeight="1"/>
-    <row r="654" ht="13.5" customHeight="1"/>
-    <row r="655" ht="13.5" customHeight="1"/>
-    <row r="656" ht="13.5" customHeight="1"/>
-    <row r="657" ht="13.5" customHeight="1"/>
-    <row r="658" ht="13.5" customHeight="1"/>
-    <row r="659" ht="13.5" customHeight="1"/>
-    <row r="660" ht="13.5" customHeight="1"/>
-    <row r="661" ht="13.5" customHeight="1"/>
-    <row r="662" ht="13.5" customHeight="1"/>
-    <row r="663" ht="13.5" customHeight="1"/>
-    <row r="664" ht="13.5" customHeight="1"/>
-    <row r="665" ht="13.5" customHeight="1"/>
-    <row r="666" ht="13.5" customHeight="1"/>
-    <row r="667" ht="13.5" customHeight="1"/>
-    <row r="668" ht="13.5" customHeight="1"/>
-    <row r="669" ht="13.5" customHeight="1"/>
-    <row r="670" ht="13.5" customHeight="1"/>
-    <row r="671" ht="13.5" customHeight="1"/>
-    <row r="672" ht="13.5" customHeight="1"/>
-    <row r="673" ht="13.5" customHeight="1"/>
-    <row r="674" ht="13.5" customHeight="1"/>
-    <row r="675" ht="13.5" customHeight="1"/>
-    <row r="676" ht="13.5" customHeight="1"/>
-    <row r="677" ht="13.5" customHeight="1"/>
-    <row r="678" ht="13.5" customHeight="1"/>
-    <row r="679" ht="13.5" customHeight="1"/>
-    <row r="680" ht="13.5" customHeight="1"/>
-    <row r="681" ht="13.5" customHeight="1"/>
-    <row r="682" ht="13.5" customHeight="1"/>
-    <row r="683" ht="13.5" customHeight="1"/>
-    <row r="684" ht="13.5" customHeight="1"/>
-    <row r="685" ht="13.5" customHeight="1"/>
-    <row r="686" ht="13.5" customHeight="1"/>
-    <row r="687" ht="13.5" customHeight="1"/>
-    <row r="688" ht="13.5" customHeight="1"/>
-    <row r="689" ht="13.5" customHeight="1"/>
-    <row r="690" ht="13.5" customHeight="1"/>
-    <row r="691" ht="13.5" customHeight="1"/>
-    <row r="692" ht="13.5" customHeight="1"/>
-    <row r="693" ht="13.5" customHeight="1"/>
-    <row r="694" ht="13.5" customHeight="1"/>
-    <row r="695" ht="13.5" customHeight="1"/>
-    <row r="696" ht="13.5" customHeight="1"/>
-    <row r="697" ht="13.5" customHeight="1"/>
-    <row r="698" ht="13.5" customHeight="1"/>
-    <row r="699" ht="13.5" customHeight="1"/>
-    <row r="700" ht="13.5" customHeight="1"/>
-    <row r="701" ht="13.5" customHeight="1"/>
-    <row r="702" ht="13.5" customHeight="1"/>
-    <row r="703" ht="13.5" customHeight="1"/>
-    <row r="704" ht="13.5" customHeight="1"/>
-    <row r="705" ht="13.5" customHeight="1"/>
-    <row r="706" ht="13.5" customHeight="1"/>
-    <row r="707" ht="13.5" customHeight="1"/>
-    <row r="708" ht="13.5" customHeight="1"/>
-    <row r="709" ht="13.5" customHeight="1"/>
-    <row r="710" ht="13.5" customHeight="1"/>
-    <row r="711" ht="13.5" customHeight="1"/>
-    <row r="712" ht="13.5" customHeight="1"/>
-    <row r="713" ht="13.5" customHeight="1"/>
-    <row r="714" ht="13.5" customHeight="1"/>
-    <row r="715" ht="13.5" customHeight="1"/>
-    <row r="716" ht="13.5" customHeight="1"/>
-    <row r="717" ht="13.5" customHeight="1"/>
-    <row r="718" ht="13.5" customHeight="1"/>
-    <row r="719" ht="13.5" customHeight="1"/>
-    <row r="720" ht="13.5" customHeight="1"/>
-    <row r="721" ht="13.5" customHeight="1"/>
-    <row r="722" ht="13.5" customHeight="1"/>
-    <row r="723" ht="13.5" customHeight="1"/>
-    <row r="724" ht="13.5" customHeight="1"/>
-    <row r="725" ht="13.5" customHeight="1"/>
-    <row r="726" ht="13.5" customHeight="1"/>
-    <row r="727" ht="13.5" customHeight="1"/>
-    <row r="728" ht="13.5" customHeight="1"/>
-    <row r="729" ht="13.5" customHeight="1"/>
-    <row r="730" ht="13.5" customHeight="1"/>
-    <row r="731" ht="13.5" customHeight="1"/>
-    <row r="732" ht="13.5" customHeight="1"/>
-    <row r="733" ht="13.5" customHeight="1"/>
-    <row r="734" ht="13.5" customHeight="1"/>
-    <row r="735" ht="13.5" customHeight="1"/>
-    <row r="736" ht="13.5" customHeight="1"/>
-    <row r="737" ht="13.5" customHeight="1"/>
-    <row r="738" ht="13.5" customHeight="1"/>
-    <row r="739" ht="13.5" customHeight="1"/>
-    <row r="740" ht="13.5" customHeight="1"/>
-    <row r="741" ht="13.5" customHeight="1"/>
-    <row r="742" ht="13.5" customHeight="1"/>
-    <row r="743" ht="13.5" customHeight="1"/>
-    <row r="744" ht="13.5" customHeight="1"/>
-    <row r="745" ht="13.5" customHeight="1"/>
-    <row r="746" ht="13.5" customHeight="1"/>
-    <row r="747" ht="13.5" customHeight="1"/>
-    <row r="748" ht="13.5" customHeight="1"/>
-    <row r="749" ht="13.5" customHeight="1"/>
-    <row r="750" ht="13.5" customHeight="1"/>
-    <row r="751" ht="13.5" customHeight="1"/>
-    <row r="752" ht="13.5" customHeight="1"/>
-    <row r="753" ht="13.5" customHeight="1"/>
-    <row r="754" ht="13.5" customHeight="1"/>
-    <row r="755" ht="13.5" customHeight="1"/>
-    <row r="756" ht="13.5" customHeight="1"/>
-    <row r="757" ht="13.5" customHeight="1"/>
-    <row r="758" ht="13.5" customHeight="1"/>
-    <row r="759" ht="13.5" customHeight="1"/>
-    <row r="760" ht="13.5" customHeight="1"/>
-    <row r="761" ht="13.5" customHeight="1"/>
-    <row r="762" ht="13.5" customHeight="1"/>
-    <row r="763" ht="13.5" customHeight="1"/>
-    <row r="764" ht="13.5" customHeight="1"/>
-    <row r="765" ht="13.5" customHeight="1"/>
-    <row r="766" ht="13.5" customHeight="1"/>
-    <row r="767" ht="13.5" customHeight="1"/>
-    <row r="768" ht="13.5" customHeight="1"/>
-    <row r="769" ht="13.5" customHeight="1"/>
-    <row r="770" ht="13.5" customHeight="1"/>
-    <row r="771" ht="13.5" customHeight="1"/>
-    <row r="772" ht="13.5" customHeight="1"/>
-    <row r="773" ht="13.5" customHeight="1"/>
-    <row r="774" ht="13.5" customHeight="1"/>
-    <row r="775" ht="13.5" customHeight="1"/>
-    <row r="776" ht="13.5" customHeight="1"/>
-    <row r="777" ht="13.5" customHeight="1"/>
-    <row r="778" ht="13.5" customHeight="1"/>
-    <row r="779" ht="13.5" customHeight="1"/>
-    <row r="780" ht="13.5" customHeight="1"/>
-    <row r="781" ht="13.5" customHeight="1"/>
-    <row r="782" ht="13.5" customHeight="1"/>
-    <row r="783" ht="13.5" customHeight="1"/>
-    <row r="784" ht="13.5" customHeight="1"/>
-    <row r="785" ht="13.5" customHeight="1"/>
-    <row r="786" ht="13.5" customHeight="1"/>
-    <row r="787" ht="13.5" customHeight="1"/>
-    <row r="788" ht="13.5" customHeight="1"/>
-    <row r="789" ht="13.5" customHeight="1"/>
-    <row r="790" ht="13.5" customHeight="1"/>
-    <row r="791" ht="13.5" customHeight="1"/>
-    <row r="792" ht="13.5" customHeight="1"/>
-    <row r="793" ht="13.5" customHeight="1"/>
-    <row r="794" ht="13.5" customHeight="1"/>
-    <row r="795" ht="13.5" customHeight="1"/>
-    <row r="796" ht="13.5" customHeight="1"/>
-    <row r="797" ht="13.5" customHeight="1"/>
-    <row r="798" ht="13.5" customHeight="1"/>
-    <row r="799" ht="13.5" customHeight="1"/>
-    <row r="800" ht="13.5" customHeight="1"/>
-    <row r="801" ht="13.5" customHeight="1"/>
-    <row r="802" ht="13.5" customHeight="1"/>
-    <row r="803" ht="13.5" customHeight="1"/>
-    <row r="804" ht="13.5" customHeight="1"/>
-    <row r="805" ht="13.5" customHeight="1"/>
-    <row r="806" ht="13.5" customHeight="1"/>
-    <row r="807" ht="13.5" customHeight="1"/>
-    <row r="808" ht="13.5" customHeight="1"/>
-    <row r="809" ht="13.5" customHeight="1"/>
-    <row r="810" ht="13.5" customHeight="1"/>
-    <row r="811" ht="13.5" customHeight="1"/>
-    <row r="812" ht="13.5" customHeight="1"/>
-    <row r="813" ht="13.5" customHeight="1"/>
-    <row r="814" ht="13.5" customHeight="1"/>
-    <row r="815" ht="13.5" customHeight="1"/>
-    <row r="816" ht="13.5" customHeight="1"/>
-    <row r="817" ht="13.5" customHeight="1"/>
-    <row r="818" ht="13.5" customHeight="1"/>
-    <row r="819" ht="13.5" customHeight="1"/>
-    <row r="820" ht="13.5" customHeight="1"/>
-    <row r="821" ht="13.5" customHeight="1"/>
-    <row r="822" ht="13.5" customHeight="1"/>
-    <row r="823" ht="13.5" customHeight="1"/>
-    <row r="824" ht="13.5" customHeight="1"/>
-    <row r="825" ht="13.5" customHeight="1"/>
-    <row r="826" ht="13.5" customHeight="1"/>
-    <row r="827" ht="13.5" customHeight="1"/>
-    <row r="828" ht="13.5" customHeight="1"/>
-    <row r="829" ht="13.5" customHeight="1"/>
-    <row r="830" ht="13.5" customHeight="1"/>
-    <row r="831" ht="13.5" customHeight="1"/>
-    <row r="832" ht="13.5" customHeight="1"/>
-    <row r="833" ht="13.5" customHeight="1"/>
-    <row r="834" ht="13.5" customHeight="1"/>
-    <row r="835" ht="13.5" customHeight="1"/>
-    <row r="836" ht="13.5" customHeight="1"/>
-    <row r="837" ht="13.5" customHeight="1"/>
-    <row r="838" ht="13.5" customHeight="1"/>
-    <row r="839" ht="13.5" customHeight="1"/>
-    <row r="840" ht="13.5" customHeight="1"/>
-    <row r="841" ht="13.5" customHeight="1"/>
-    <row r="842" ht="13.5" customHeight="1"/>
-    <row r="843" ht="13.5" customHeight="1"/>
-    <row r="844" ht="13.5" customHeight="1"/>
-    <row r="845" ht="13.5" customHeight="1"/>
-    <row r="846" ht="13.5" customHeight="1"/>
-    <row r="847" ht="13.5" customHeight="1"/>
-    <row r="848" ht="13.5" customHeight="1"/>
-    <row r="849" ht="13.5" customHeight="1"/>
-    <row r="850" ht="13.5" customHeight="1"/>
-    <row r="851" ht="13.5" customHeight="1"/>
-    <row r="852" ht="13.5" customHeight="1"/>
-    <row r="853" ht="13.5" customHeight="1"/>
-    <row r="854" ht="13.5" customHeight="1"/>
-    <row r="855" ht="13.5" customHeight="1"/>
-    <row r="856" ht="13.5" customHeight="1"/>
-    <row r="857" ht="13.5" customHeight="1"/>
-    <row r="858" ht="13.5" customHeight="1"/>
-    <row r="859" ht="13.5" customHeight="1"/>
-    <row r="860" ht="13.5" customHeight="1"/>
-    <row r="861" ht="13.5" customHeight="1"/>
-    <row r="862" ht="13.5" customHeight="1"/>
-    <row r="863" ht="13.5" customHeight="1"/>
-    <row r="864" ht="13.5" customHeight="1"/>
-    <row r="865" ht="13.5" customHeight="1"/>
-    <row r="866" ht="13.5" customHeight="1"/>
-    <row r="867" ht="13.5" customHeight="1"/>
-    <row r="868" ht="13.5" customHeight="1"/>
-    <row r="869" ht="13.5" customHeight="1"/>
-    <row r="870" ht="13.5" customHeight="1"/>
-    <row r="871" ht="13.5" customHeight="1"/>
-    <row r="872" ht="13.5" customHeight="1"/>
-    <row r="873" ht="13.5" customHeight="1"/>
-    <row r="874" ht="13.5" customHeight="1"/>
-    <row r="875" ht="13.5" customHeight="1"/>
-    <row r="876" ht="13.5" customHeight="1"/>
-    <row r="877" ht="13.5" customHeight="1"/>
-    <row r="878" ht="13.5" customHeight="1"/>
-    <row r="879" ht="13.5" customHeight="1"/>
-    <row r="880" ht="13.5" customHeight="1"/>
-    <row r="881" ht="13.5" customHeight="1"/>
-    <row r="882" ht="13.5" customHeight="1"/>
-    <row r="883" ht="13.5" customHeight="1"/>
-    <row r="884" ht="13.5" customHeight="1"/>
-    <row r="885" ht="13.5" customHeight="1"/>
-    <row r="886" ht="13.5" customHeight="1"/>
-    <row r="887" ht="13.5" customHeight="1"/>
-    <row r="888" ht="13.5" customHeight="1"/>
-    <row r="889" ht="13.5" customHeight="1"/>
-    <row r="890" ht="13.5" customHeight="1"/>
-    <row r="891" ht="13.5" customHeight="1"/>
-    <row r="892" ht="13.5" customHeight="1"/>
-    <row r="893" ht="13.5" customHeight="1"/>
-    <row r="894" ht="13.5" customHeight="1"/>
-    <row r="895" ht="13.5" customHeight="1"/>
-    <row r="896" ht="13.5" customHeight="1"/>
-    <row r="897" ht="13.5" customHeight="1"/>
-    <row r="898" ht="13.5" customHeight="1"/>
-    <row r="899" ht="13.5" customHeight="1"/>
-    <row r="900" ht="13.5" customHeight="1"/>
-    <row r="901" ht="13.5" customHeight="1"/>
-    <row r="902" ht="13.5" customHeight="1"/>
-    <row r="903" ht="13.5" customHeight="1"/>
-    <row r="904" ht="13.5" customHeight="1"/>
-    <row r="905" ht="13.5" customHeight="1"/>
-    <row r="906" ht="13.5" customHeight="1"/>
-    <row r="907" ht="13.5" customHeight="1"/>
-    <row r="908" ht="13.5" customHeight="1"/>
-    <row r="909" ht="13.5" customHeight="1"/>
-    <row r="910" ht="13.5" customHeight="1"/>
-    <row r="911" ht="13.5" customHeight="1"/>
-    <row r="912" ht="13.5" customHeight="1"/>
-    <row r="913" ht="13.5" customHeight="1"/>
-    <row r="914" ht="13.5" customHeight="1"/>
-    <row r="915" ht="13.5" customHeight="1"/>
-    <row r="916" ht="13.5" customHeight="1"/>
-    <row r="917" ht="13.5" customHeight="1"/>
-    <row r="918" ht="13.5" customHeight="1"/>
-    <row r="919" ht="13.5" customHeight="1"/>
-    <row r="920" ht="13.5" customHeight="1"/>
-    <row r="921" ht="13.5" customHeight="1"/>
-    <row r="922" ht="13.5" customHeight="1"/>
-    <row r="923" ht="13.5" customHeight="1"/>
-    <row r="924" ht="13.5" customHeight="1"/>
-    <row r="925" ht="13.5" customHeight="1"/>
-    <row r="926" ht="13.5" customHeight="1"/>
-    <row r="927" ht="13.5" customHeight="1"/>
-    <row r="928" ht="13.5" customHeight="1"/>
-    <row r="929" ht="13.5" customHeight="1"/>
-    <row r="930" ht="13.5" customHeight="1"/>
-    <row r="931" ht="13.5" customHeight="1"/>
-    <row r="932" ht="13.5" customHeight="1"/>
-    <row r="933" ht="13.5" customHeight="1"/>
-    <row r="934" ht="13.5" customHeight="1"/>
-    <row r="935" ht="13.5" customHeight="1"/>
-    <row r="936" ht="13.5" customHeight="1"/>
-    <row r="937" ht="13.5" customHeight="1"/>
-    <row r="938" ht="13.5" customHeight="1"/>
-    <row r="939" ht="13.5" customHeight="1"/>
-    <row r="940" ht="13.5" customHeight="1"/>
-    <row r="941" ht="13.5" customHeight="1"/>
-    <row r="942" ht="13.5" customHeight="1"/>
-    <row r="943" ht="13.5" customHeight="1"/>
-    <row r="944" ht="13.5" customHeight="1"/>
-    <row r="945" ht="13.5" customHeight="1"/>
-    <row r="946" ht="13.5" customHeight="1"/>
-    <row r="947" ht="13.5" customHeight="1"/>
-    <row r="948" ht="13.5" customHeight="1"/>
-    <row r="949" ht="13.5" customHeight="1"/>
-    <row r="950" ht="13.5" customHeight="1"/>
-    <row r="951" ht="13.5" customHeight="1"/>
-    <row r="952" ht="13.5" customHeight="1"/>
-    <row r="953" ht="13.5" customHeight="1"/>
-    <row r="954" ht="13.5" customHeight="1"/>
-    <row r="955" ht="13.5" customHeight="1"/>
-    <row r="956" ht="13.5" customHeight="1"/>
-    <row r="957" ht="13.5" customHeight="1"/>
-    <row r="958" ht="13.5" customHeight="1"/>
-    <row r="959" ht="13.5" customHeight="1"/>
-    <row r="960" ht="13.5" customHeight="1"/>
-    <row r="961" ht="13.5" customHeight="1"/>
-    <row r="962" ht="13.5" customHeight="1"/>
-    <row r="963" ht="13.5" customHeight="1"/>
-    <row r="964" ht="13.5" customHeight="1"/>
-    <row r="965" ht="13.5" customHeight="1"/>
-    <row r="966" ht="13.5" customHeight="1"/>
-    <row r="967" ht="13.5" customHeight="1"/>
-    <row r="968" ht="13.5" customHeight="1"/>
-    <row r="969" ht="13.5" customHeight="1"/>
-    <row r="970" ht="13.5" customHeight="1"/>
-    <row r="971" ht="13.5" customHeight="1"/>
-    <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
-    <row r="974" ht="13.5" customHeight="1"/>
-    <row r="975" ht="13.5" customHeight="1"/>
-    <row r="976" ht="13.5" customHeight="1"/>
-    <row r="977" ht="13.5" customHeight="1"/>
-    <row r="978" ht="13.5" customHeight="1"/>
-    <row r="979" ht="13.5" customHeight="1"/>
-    <row r="980" ht="13.5" customHeight="1"/>
-    <row r="981" ht="13.5" customHeight="1"/>
-    <row r="982" ht="13.5" customHeight="1"/>
-    <row r="983" ht="13.5" customHeight="1"/>
-    <row r="984" ht="13.5" customHeight="1"/>
-    <row r="985" ht="13.5" customHeight="1"/>
-    <row r="986" ht="13.5" customHeight="1"/>
-    <row r="987" ht="13.5" customHeight="1"/>
-    <row r="988" ht="13.5" customHeight="1"/>
-    <row r="989" ht="13.5" customHeight="1"/>
-    <row r="990" ht="13.5" customHeight="1"/>
-    <row r="991" ht="13.5" customHeight="1"/>
-    <row r="992" ht="13.5" customHeight="1"/>
-    <row r="993" ht="13.5" customHeight="1"/>
-    <row r="994" ht="13.5" customHeight="1"/>
-    <row r="995" ht="13.5" customHeight="1"/>
-    <row r="996" ht="13.5" customHeight="1"/>
-    <row r="997" ht="13.5" customHeight="1"/>
-    <row r="998" ht="13.5" customHeight="1"/>
-    <row r="999" ht="13.5" customHeight="1"/>
+    <row r="199" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="$A$1:$G$196"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:G196"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>